--- a/report.xlsx
+++ b/report.xlsx
@@ -444,9 +444,9 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,7 +462,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t>Средняя зарплата - Javascript</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t>Количество вакансий - Javascript</t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40641</v>
+        <v>22500</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +501,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48428</v>
+        <v>51166</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,13 +518,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48109</v>
+        <v>56500</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>171</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49577</v>
+        <v>61428</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>328</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -552,13 +552,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>52794</v>
+        <v>50882</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>418</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -569,13 +569,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>58341</v>
+        <v>66800</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>374</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -586,13 +586,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>57004</v>
+        <v>65265</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>420</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58768</v>
+        <v>72245</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>504</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -620,13 +620,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>53326</v>
+        <v>78948</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>749</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>54236</v>
+        <v>91616</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>911</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>56558</v>
+        <v>111915</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1201</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>61080</v>
+        <v>122021</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1578</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -688,13 +688,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>71288</v>
+        <v>137536</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1482</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -705,13 +705,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>80145</v>
+        <v>127691</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1349</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -722,13 +722,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>87473</v>
+        <v>124053</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>805</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -739,13 +739,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91340</v>
+        <v>120714</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
